--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -43,19 +43,25 @@
   <si>
     <t>7hrs</t>
   </si>
+  <si>
+    <t>Data Structure and Oops Concepts.</t>
+  </si>
+  <si>
+    <t>8hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,9 +87,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,16 +123,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,7 +179,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -173,14 +188,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,38 +224,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,7 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,156 +419,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,13 +431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +585,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +624,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,6 +652,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -652,177 +677,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1169,7 +1168,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1231,9 +1230,15 @@
       <c r="C5" s="13">
         <v>44411</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -49,17 +49,23 @@
   <si>
     <t>8hrs</t>
   </si>
+  <si>
+    <t>Spring Boot and SQL.</t>
+  </si>
+  <si>
+    <t>9hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,16 +92,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,14 +107,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -123,17 +114,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +183,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -188,21 +192,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,14 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,7 +257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,7 +317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,7 +341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,115 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,35 +586,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +612,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +649,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -663,27 +675,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -692,37 +698,37 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,97 +737,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -845,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,7 +1174,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1241,11 +1247,21 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13">
+        <v>44412</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -55,17 +55,33 @@
   <si>
     <t>9hrs</t>
   </si>
+  <si>
+    <t>Advance Java Concepts.</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>jBPM</t>
+  </si>
+  <si>
+    <t>Revision: Rest and email.</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -92,14 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,14 +123,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,7 +177,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,16 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,9 +222,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,6 +237,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -257,7 +273,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,175 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,21 +598,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,6 +651,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -686,7 +702,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,143 +717,137 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -851,7 +867,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,7 +1191,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1264,18 +1281,38 @@
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13">
+        <v>44413</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="14">
+        <v>44413</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -70,18 +70,33 @@
   <si>
     <t>4hrs</t>
   </si>
+  <si>
+    <t>Spring Boot :Examples</t>
+  </si>
+  <si>
+    <t>Example Process.</t>
+  </si>
+  <si>
+    <t>3hrs</t>
+  </si>
+  <si>
+    <t>Sql commands.</t>
+  </si>
+  <si>
+    <t>Drools basic program.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -108,6 +123,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,8 +145,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,9 +155,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,21 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -177,7 +186,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,18 +216,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +231,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -244,13 +266,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -273,7 +288,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,79 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,91 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +627,36 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -650,32 +695,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,160 +714,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -867,8 +882,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1191,7 +1206,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1315,32 +1330,72 @@
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13">
+        <v>44414</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="13">
+        <v>44414</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="13">
+        <v>44417</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="7">
+        <v>9</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44417</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>Drools basic program.</t>
   </si>
+  <si>
+    <t>Data Structure with examples.</t>
+  </si>
 </sst>
 </file>
 
@@ -92,11 +95,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -123,9 +126,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,8 +140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,9 +156,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,6 +174,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +235,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -237,35 +269,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -288,7 +291,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +333,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,19 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,61 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,73 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,17 +620,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,16 +646,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -704,161 +703,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -882,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1206,7 +1209,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1398,11 +1401,21 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="7">
+        <v>10</v>
+      </c>
+      <c r="C13" s="13">
+        <v>44418</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -88,18 +88,24 @@
   <si>
     <t>Data Structure with examples.</t>
   </si>
+  <si>
+    <t>MVC concepts with examples.</t>
+  </si>
+  <si>
+    <t>5hrs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,15 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,30 +142,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,9 +163,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,9 +179,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,31 +224,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,7 +240,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,19 +297,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,31 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,19 +393,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,25 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,43 +459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,11 +628,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,6 +650,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,15 +670,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,24 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -717,19 +703,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,31 +744,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,97 +777,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -886,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,7 +1215,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1418,11 +1424,21 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="13">
+        <v>44419</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -94,17 +94,20 @@
   <si>
     <t>5hrs</t>
   </si>
+  <si>
+    <t>Spring Boot program.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -132,26 +135,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,7 +152,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,15 +198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,22 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,8 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,14 +236,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,7 +300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,31 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,25 +330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +354,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,37 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,49 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,26 +629,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,36 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -723,151 +687,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -891,7 +894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1215,7 +1218,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1441,11 +1444,21 @@
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="7">
+        <v>12</v>
+      </c>
+      <c r="C15" s="13">
+        <v>44420</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -97,6 +97,9 @@
   <si>
     <t>Spring Boot program.</t>
   </si>
+  <si>
+    <t>Spring concepts and data structure.</t>
+  </si>
 </sst>
 </file>
 
@@ -107,8 +110,8 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,17 +138,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,25 +183,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,16 +206,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,8 +229,32 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,30 +269,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +277,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,120 +303,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -426,13 +315,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,42 +487,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -625,6 +628,39 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,31 +684,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,15 +715,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,7 +732,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -750,127 +753,127 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -894,8 +897,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1218,7 +1221,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1461,11 +1464,21 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="7">
+        <v>13</v>
+      </c>
+      <c r="C16" s="13">
+        <v>44421</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -100,18 +100,21 @@
   <si>
     <t>Spring concepts and data structure.</t>
   </si>
+  <si>
+    <t>Overview of VMS project.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -138,10 +141,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -152,16 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,13 +190,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +211,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -212,47 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -268,8 +248,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +272,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,19 +360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +402,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,97 +486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,11 +635,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,24 +667,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,18 +680,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,6 +705,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,148 +735,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -897,8 +900,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,7 +1224,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1481,11 +1484,21 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="7">
+        <v>14</v>
+      </c>
+      <c r="C17" s="13">
+        <v>44424</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -103,18 +103,21 @@
   <si>
     <t>Overview of VMS project.</t>
   </si>
+  <si>
+    <t>Program using Hibernate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -143,22 +146,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,37 +154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +168,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,15 +205,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,16 +229,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,6 +269,20 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,7 +309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +327,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,19 +357,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,31 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,103 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,16 +639,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,17 +670,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -685,26 +677,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,6 +697,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,10 +726,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,139 +753,133 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,8 +903,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1224,7 +1227,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1501,11 +1504,21 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="7">
+        <v>15</v>
+      </c>
+      <c r="C18" s="13">
+        <v>44425</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -106,18 +106,21 @@
   <si>
     <t>Program using Hibernate.</t>
   </si>
+  <si>
+    <t>Spring:all basic concepts revised.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,30 +147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -182,9 +161,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,68 +240,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,7 +262,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +312,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,97 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,25 +360,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,13 +420,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +456,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +637,39 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,30 +689,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -688,26 +700,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +721,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -738,148 +741,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -903,8 +906,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1227,7 +1230,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1521,15 +1524,29 @@
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="7">
+        <v>16</v>
+      </c>
+      <c r="C19" s="13">
+        <v>44426</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="7">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13">
+        <v>44427</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -109,18 +109,21 @@
   <si>
     <t>Spring:all basic concepts revised.</t>
   </si>
+  <si>
+    <t>Cms project.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -147,6 +150,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -161,11 +172,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,45 +184,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +196,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,14 +219,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,21 +287,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -312,7 +315,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,91 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,7 +447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,13 +471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,43 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,18 +646,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,17 +670,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +694,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,171 +741,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1230,7 +1233,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1547,9 +1550,15 @@
       <c r="C20" s="13">
         <v>44427</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -112,17 +112,20 @@
   <si>
     <t>Cms project.</t>
   </si>
+  <si>
+    <t>Servlet and jsp.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
@@ -150,9 +153,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,22 +176,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,13 +193,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,18 +214,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,7 +255,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,14 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -286,9 +290,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +318,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +336,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +468,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,37 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,85 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +647,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -694,15 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -721,171 +719,176 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -909,7 +912,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1233,7 +1236,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1561,11 +1564,21 @@
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="7">
+        <v>18</v>
+      </c>
+      <c r="C21" s="13">
+        <v>44428</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -115,6 +115,9 @@
   <si>
     <t>Servlet and jsp.</t>
   </si>
+  <si>
+    <t>Drools concepts revised.</t>
+  </si>
 </sst>
 </file>
 
@@ -123,10 +126,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -153,14 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -175,8 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,7 +187,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,18 +232,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -219,14 +251,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,11 +270,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,8 +284,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,27 +295,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,7 +321,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,31 +435,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,37 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,97 +495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,16 +651,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,25 +723,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,22 +747,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -759,136 +762,136 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -913,7 +916,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,8 +1238,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1581,11 +1584,21 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="7">
+        <v>19</v>
+      </c>
+      <c r="C22" s="13">
+        <v>44431</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>Drools concepts revised.</t>
   </si>
+  <si>
+    <t>Spring boot concepts.</t>
+  </si>
+  <si>
+    <t>Multi-Threading concepts.</t>
+  </si>
 </sst>
 </file>
 
@@ -125,11 +131,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -157,7 +163,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,29 +179,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,23 +192,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,6 +261,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -286,7 +278,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +294,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +327,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +339,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,37 +429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,109 +483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,30 +656,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -698,15 +680,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -718,6 +691,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,148 +756,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,7 +922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1239,7 +1245,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1601,18 +1607,38 @@
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="13">
+        <v>44432</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="7">
+        <v>21</v>
+      </c>
+      <c r="C24" s="13">
+        <v>44433</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Multi-Threading concepts.</t>
+  </si>
+  <si>
+    <t>Java 8:Features and Exception handling.</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -163,20 +166,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,16 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,28 +304,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,7 +330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,7 +354,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,25 +450,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,67 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,49 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,6 +668,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -680,6 +694,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -691,15 +714,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,162 +756,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -921,8 +924,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1244,8 +1247,8 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1641,11 +1644,21 @@
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="13">
+        <v>44434</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Java 8:Features and Exception handling.</t>
+  </si>
+  <si>
+    <t>Predicate Interface with example.</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -172,30 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,9 +191,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,7 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +249,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,14 +306,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -330,25 +333,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,43 +387,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,13 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,25 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,7 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,25 +483,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,11 +662,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,21 +737,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -756,13 +750,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,136 +774,136 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -924,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1248,7 +1251,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1661,11 +1664,21 @@
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="13">
+        <v>44435</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7"/>

--- a/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
+++ b/Nivedha/TimeSheet/Schwall_Trainee_Nivedha_Timesheet_August_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>Predicate Interface with example.</t>
+  </si>
+  <si>
+    <t>File Handling concepts.</t>
+  </si>
+  <si>
+    <t>Exception Handling and linked list example program.</t>
   </si>
 </sst>
 </file>
@@ -137,11 +143,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,21 +174,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -191,7 +182,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -200,7 +190,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,31 +219,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +232,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -297,6 +273,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -305,8 +288,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,19 +339,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,37 +375,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,25 +393,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,43 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,32 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -737,6 +717,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -759,13 +754,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -774,7 +780,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -783,127 +789,127 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -927,8 +933,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,7 +1257,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1681,18 +1687,38 @@
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="7">
+        <v>24</v>
+      </c>
+      <c r="C27" s="13">
+        <v>44438</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="C28" s="13">
+        <v>44439</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="7"/>
